--- a/Makslip-2081-1st/Markslip(9 NM).xlsx
+++ b/Makslip-2081-1st/Markslip(9 NM).xlsx
@@ -709,7 +709,7 @@
     <t>नम्बर चढाइसकेपछि फाइल सेभ गरी यो लिङ्कमा थिच्नुस । यसपछि यही फाइल अपलोड गर्नुहोस् ।</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1214,10 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1229,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="69850" y="13614400"/>
-          <a:ext cx="889000" cy="330200"/>
+          <a:ext cx="831850" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,9 +1253,9 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>Upload</a:t>
           </a:r>
         </a:p>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:AI73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
